--- a/X10_Project/proj.win32/files/stage info.xlsx
+++ b/X10_Project/proj.win32/files/stage info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,22 @@
   </si>
   <si>
     <t>화면 넘기기 - 통로에 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계인 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통사고현장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,7 +457,7 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,35 +479,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -501,74 +514,83 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -579,12 +601,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" t="s">
         <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/X10_Project/proj.win32/files/stage info.xlsx
+++ b/X10_Project/proj.win32/files/stage info.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,146 @@
   </si>
   <si>
     <t>연출넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 튜토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방울월드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽돌 사이로 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 넘겨서 맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 하향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거울의방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3이랑 스왑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화면 넘기기 고급 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 중상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면넘기기 알려줄필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이로 맞추기 + 거울로 화면넘기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">난이도 하 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 넘기기 OR 힘조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도에 따라 재배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 넘기기 (맞추기 쉽게 조정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 하향 - 난이도 중하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 하상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에는 before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래는 after</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,18 +586,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,8 +621,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -504,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -518,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -529,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -554,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -568,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -579,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -590,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -601,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -613,6 +759,228 @@
       </c>
       <c r="E13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
